--- a/anyx 문법.xlsx
+++ b/anyx 문법.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\happy\Projects\data\datas1\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49769F07-63E6-44D4-AF07-C65CF1EF6450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8FC363-56B8-40D7-A827-C2376F4E6CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4033E7A9-A39D-4A3F-BF5E-1B8D493CCBBC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4033E7A9-A39D-4A3F-BF5E-1B8D493CCBBC}"/>
   </bookViews>
   <sheets>
     <sheet name="문법설명 데이터" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="443">
   <si>
     <t>문법요소</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,14 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;component_list&gt; ::== &lt;component&gt;[{ ["="&lt;compoent_props&gt;] "," &lt;component&gt;}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;component_props&gt; ::= "props""("&lt;argument_list&gt;")"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>component_property</t>
   </si>
   <si>
@@ -261,19 +253,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;ui_property&gt; ::= "@uiProperty" "(" [ "main" | "lnb" | "gnb" | "rnb" | "popup"[":" "modal" | "modalies"] | "footer" | "header" ] ")"
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>event_bus_on</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;envent_bus_on&gt; ::= "@eventBusOn" "(" &lt;function&gt;[ "," &lt;function&gt;] ")"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">argument_list </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,10 +267,6 @@
     <t>function</t>
   </si>
   <si>
-    <t>&lt;state&gt; ::= "@state" "(" &lt;argument_list&gt; ")"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>object</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,10 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;action&gt; ::= "@action" "(" &lt;argument_list&gt; ")"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,10 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;import_store&gt; ::= "@importStore" "(" &lt;name_list&gt; ")"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>operation_viewing_option_json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,10 +367,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;envent_bus_emit&gt; ::= "@enventBusEmit" "(" &lt;function_list&gt; ")"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>viewing_option</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,18 +375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;operation_viewing_option_json&gt; ::= "@operationViewingOptionJson" "(" &lt;key_value_pair_list&gt; ")"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;operationViewingOptionJson&gt; ::= "@operationViewingOptionJson" "(" &lt;key_value_pair_list&gt; ")"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;viewing_option&gt; ::= "@viewingOption" "(" &lt;key_value_pair_list&gt; ")"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>route_query</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,14 +388,6 @@
   </si>
   <si>
     <t>route_query_function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;route_query&gt; ::= "@routeQuery" "(" &lt;route_query_function&gt; ")"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;route_query_function&gt; ::= &lt;name&gt; "("  ")" "{" &lt;asign_list&gt; "}"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -616,10 +563,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>컴포넌트 속성 저의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화면 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -638,10 +581,6 @@
   </si>
   <si>
     <t>props</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;props&gt; ::= "@props" "(" &lt;argument_list&gt; ")"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1760,6 +1699,175 @@
   </si>
   <si>
     <t>Parsing Structure:  - &lt;select&gt; selectBook &lt;tb_book_ta,  tb_bookdetail_ta &gt; ^ SP : i ( count, title, publisher  , combo( price, page_count) ,   edition,  language,  publication_date &gt; start_dt, publication_date &lt; end_dt ) - &lt;name&gt; selectBook - &lt;less&gt; &lt; - &lt;table_list&gt; - &lt;table_name&gt; tb_book_ta - &lt;table_name&gt; tb_bookdetail_ta - &lt;greater&gt; &gt; - &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; SP - &lt;operation_option&gt; i &lt;serch_list&gt; - &lt;search_name&gt; count  - &lt;search_name&gt; title  - &lt;search_name&gt; publisher   - &lt;search_name&gt; - &lt;combo&gt; - &lt;name_list&gt; -&lt;name&gt; price - &lt;name&gt; page_count - &lt;search_name&gt; edition - &lt;search_name&gt;  language - &lt;search_name&gt; - &lt;comparison&gt;  - &lt;name&gt; publication_date - &lt;comparison_operation&gt; &gt; - &lt;name&gt; start_dt - &lt;search_name&gt; - &lt;comparison&gt; - &lt;name&gt; publication_date -&lt;comparison_operation&gt; &lt; - &lt;name&gt; end_dt Validity: Ok 0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ &lt;left_parenthesis&gt; &lt;comopent_list&gt; &lt;right_parenthesis&gt; ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>component_props_prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;component_props_prefix&gt; ::= "props"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;component_props&gt; ::= &lt;component_props_prefix&gt;&lt;left_parenthesis&gt;&lt;argument_list&gt;&lt;right_parenthesis&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>component_prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;component_prefix&gt; ::= "@compo"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;component_list&gt; ::== &lt;component&gt;[{ [&lt;equal_sign&gt;&lt;compoent_props&gt;] &lt;comma&gt; &lt;component&gt;}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_property_prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ui_property_prefix&gt; ::= "@uiProperty"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_property_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ui_property&gt; ::= &lt;ui_property_prefix&gt; &lt;left_parenthesis&gt; &lt;ui_property_type&gt; &lt;righr_parenthesis&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;ui_property_type&gt; ::= [ "main" | "lnb" | "gnb" | "rnb" | "popup"[":" "modal" | "modalies"] | "footer" | "header" ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_bus_on_prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;event_bus_on_prefix&gt; ::= "@eventBusOn"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;envent_bus_on&gt; ::= &lt;event_bus_on_prefix&gt; &lt;left_parenthesis&gt; &lt;function&gt;[ &lt;comma&gt; &lt;function&gt;] &lt;right_parenthesis&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state_prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;state_prefix&gt; ::= "@state"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;state&gt; ::= &lt;state_prefix&gt; &lt;left_parenthesis&gt; &lt;argument_list&gt; &lt;right_parenthesis&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;action_prefix&gt; ::= "@action"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;action&gt; ::= &lt;action_prefix&gt; &lt;left_parenthesis&gt; &lt;argument_list&gt; &lt;right_parenthesis&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import_store_prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;import_store_prefix&gt; ::= "@importStore"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;import_store&gt; ::= &lt;import_store_prefix&gt; &lt;left_parenthesis&gt; &lt;name_list&gt; &lt;right_parenthesis&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operation_viewing_option_json_prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;operation_viewing_option_json_prefix&gt; ::= "@operationViewingOptionJson"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;operation_viewing_option_json&gt; ::= &lt;operation_viewing_option_json_prefix&gt; &lt;left_parenthesis&gt; &lt;key_value_pair_list&gt; &lt;right_parenthesis&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>envent_bus_emit_prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;envent_bus_emit_prefix&gt; ::= "@enventBusEmit"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;envent_bus_emit&gt; ::= &lt;event_bus_emit_prefix&gt; &lt;left_parenthesis&gt; &lt;function_list&gt; &lt;right_parenthesis&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewing_option_prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;viewing_option_prefix&gt; ::= "@viewingOption"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;viewing_option&gt; ::= &lt;viewing_option_prefix&gt; &lt;left_parenthesis&gt; &lt;key_value_pair_list&gt; &lt;right_parenthesis&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>props_prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;props_prefix&gt; ::= "@props"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;props&gt; ::= &lt;props_prefix&gt; &lt;left_parenthesis&gt; &lt;argument_list&gt; &lt;right_parenthesis&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>route_query_prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;route_query_prefix&gt; ::= "@routeQuery"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;route_query&gt; ::= &lt;route_query_prefix&gt; &lt;left_parenthesis&gt; &lt;route_query_function&gt; &lt;right_parenthesis&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;route_query_function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt;  &lt;righr_parenthesis&gt; &lt;left_brace&gt; &lt;asign_list&gt; &lt;right_brace&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴포넌트 속성 정의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anyx BNF 식에서 "&lt;" 는 반드시 쌍으로 "&gt;" 가필요하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2012,10 +2120,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2335,10 +2439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E776546A-AE4B-4E14-A0C1-DDD02BDD13F3}">
-  <dimension ref="A1:H204"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2355,10 +2459,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="33">
       <c r="D1" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2383,7 +2487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="54" customHeight="1">
+    <row r="3" spans="1:8" ht="36.75" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
@@ -2392,79 +2496,79 @@
         <v>8</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1">
+    <row r="4" spans="1:8" ht="28.5" customHeight="1">
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="66">
+    <row r="5" spans="1:8" ht="27" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="66">
+    <row r="6" spans="1:8" ht="25.5" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -2474,53 +2578,53 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1">
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="20.25" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="10"/>
@@ -2528,16 +2632,16 @@
     <row r="10" spans="1:8">
       <c r="B10" s="10"/>
       <c r="C10" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="10"/>
@@ -2548,13 +2652,13 @@
         <v>10</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="10"/>
@@ -2562,16 +2666,16 @@
     <row r="12" spans="1:8">
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="10"/>
@@ -2579,16 +2683,16 @@
     <row r="13" spans="1:8">
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="10"/>
@@ -2596,16 +2700,16 @@
     <row r="14" spans="1:8">
       <c r="B14" s="10"/>
       <c r="C14" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="10"/>
@@ -2613,16 +2717,16 @@
     <row r="15" spans="1:8">
       <c r="B15" s="10"/>
       <c r="C15" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="10"/>
@@ -2630,16 +2734,16 @@
     <row r="16" spans="1:8">
       <c r="B16" s="10"/>
       <c r="C16" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="10"/>
@@ -2647,10 +2751,10 @@
     <row r="17" spans="1:8">
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="20"/>
@@ -2660,16 +2764,16 @@
     <row r="18" spans="1:8">
       <c r="B18" s="10"/>
       <c r="C18" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="10"/>
@@ -2677,16 +2781,16 @@
     <row r="19" spans="1:8">
       <c r="B19" s="10"/>
       <c r="C19" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="10"/>
@@ -2694,16 +2798,16 @@
     <row r="20" spans="1:8">
       <c r="B20" s="10"/>
       <c r="C20" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="10"/>
@@ -2711,16 +2815,16 @@
     <row r="21" spans="1:8">
       <c r="B21" s="10"/>
       <c r="C21" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="10"/>
@@ -2728,16 +2832,16 @@
     <row r="22" spans="1:8">
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="10"/>
@@ -2745,16 +2849,16 @@
     <row r="23" spans="1:8">
       <c r="B23" s="10"/>
       <c r="C23" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="10"/>
@@ -2762,16 +2866,16 @@
     <row r="24" spans="1:8">
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="10"/>
@@ -2779,16 +2883,16 @@
     <row r="25" spans="1:8">
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="10"/>
@@ -2796,16 +2900,16 @@
     <row r="26" spans="1:8">
       <c r="B26" s="10"/>
       <c r="C26" s="10" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="10"/>
@@ -2816,16 +2920,16 @@
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>25</v>
@@ -2835,13 +2939,13 @@
     <row r="28" spans="1:8" ht="13.5" customHeight="1">
       <c r="B28" s="10"/>
       <c r="C28" s="10" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="11"/>
@@ -2850,13 +2954,13 @@
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="11"/>
@@ -2865,10 +2969,10 @@
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="20"/>
@@ -2878,10 +2982,10 @@
     <row r="31" spans="1:8" ht="18.75" customHeight="1">
       <c r="B31" s="10"/>
       <c r="C31" s="10" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="20"/>
@@ -2891,10 +2995,10 @@
     <row r="32" spans="1:8" ht="24.75" customHeight="1">
       <c r="B32" s="10"/>
       <c r="C32" s="10" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="20"/>
@@ -2904,10 +3008,10 @@
     <row r="33" spans="1:8" ht="18.75" customHeight="1">
       <c r="B33" s="10"/>
       <c r="C33" s="10" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="20"/>
@@ -2917,10 +3021,10 @@
     <row r="34" spans="1:8" ht="17.25" customHeight="1">
       <c r="B34" s="10"/>
       <c r="C34" s="10" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="20"/>
@@ -2930,10 +3034,10 @@
     <row r="35" spans="1:8" ht="18.75" customHeight="1">
       <c r="B35" s="10"/>
       <c r="C35" s="10" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="20"/>
@@ -2943,10 +3047,10 @@
     <row r="36" spans="1:8" ht="19.5" customHeight="1">
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="20"/>
@@ -2956,10 +3060,10 @@
     <row r="37" spans="1:8" ht="18.75" customHeight="1">
       <c r="B37" s="10"/>
       <c r="C37" s="10" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="20"/>
@@ -2969,10 +3073,10 @@
     <row r="38" spans="1:8" ht="18.75" customHeight="1">
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="20"/>
@@ -2982,10 +3086,10 @@
     <row r="39" spans="1:8" ht="18.75" customHeight="1">
       <c r="B39" s="10"/>
       <c r="C39" s="10" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="20"/>
@@ -2995,10 +3099,10 @@
     <row r="40" spans="1:8" ht="18.75" customHeight="1">
       <c r="B40" s="10"/>
       <c r="C40" s="10" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="20"/>
@@ -3008,10 +3112,10 @@
     <row r="41" spans="1:8" ht="18.75" customHeight="1">
       <c r="B41" s="10"/>
       <c r="C41" s="10" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="20"/>
@@ -3021,10 +3125,10 @@
     <row r="42" spans="1:8" ht="18.75" customHeight="1">
       <c r="B42" s="10"/>
       <c r="C42" s="10" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="20"/>
@@ -3034,10 +3138,10 @@
     <row r="43" spans="1:8" ht="18.75" customHeight="1">
       <c r="B43" s="10"/>
       <c r="C43" s="10" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="20"/>
@@ -3047,10 +3151,10 @@
     <row r="44" spans="1:8" ht="18.75" customHeight="1">
       <c r="B44" s="10"/>
       <c r="C44" s="10" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="E44" s="18"/>
       <c r="F44" s="20"/>
@@ -3060,10 +3164,10 @@
     <row r="45" spans="1:8" ht="18.75" customHeight="1">
       <c r="B45" s="10"/>
       <c r="C45" s="10" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="20"/>
@@ -3073,10 +3177,10 @@
     <row r="46" spans="1:8" ht="18.75" customHeight="1">
       <c r="B46" s="10"/>
       <c r="C46" s="10" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="20"/>
@@ -3086,10 +3190,10 @@
     <row r="47" spans="1:8" ht="18.75" customHeight="1">
       <c r="B47" s="10"/>
       <c r="C47" s="10" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="20"/>
@@ -3106,7 +3210,7 @@
       <c r="G48" s="13"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:7" ht="96" customHeight="1">
+    <row r="49" spans="1:7" ht="79.5" customHeight="1">
       <c r="A49" s="10" t="s">
         <v>5</v>
       </c>
@@ -3117,19 +3221,19 @@
         <v>5</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>32</v>
+        <v>401</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="96" customHeight="1">
+    <row r="50" spans="1:7" ht="31.5" customHeight="1">
       <c r="A50" s="10" t="s">
         <v>5</v>
       </c>
@@ -3137,19 +3241,16 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>405</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="96" customHeight="1">
+        <v>406</v>
+      </c>
+      <c r="E50" s="21"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" ht="42" customHeight="1">
       <c r="A51" s="10" t="s">
         <v>5</v>
       </c>
@@ -3157,55 +3258,55 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>29</v>
+        <v>407</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="96" customHeight="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="47.25" customHeight="1">
       <c r="A52" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>136</v>
+        <v>27</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>404</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" ht="96" customHeight="1">
+        <v>33</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="47.25" customHeight="1">
       <c r="A53" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="E53" s="2"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" ht="96" customHeight="1">
+    <row r="54" spans="1:7" ht="64.5" customHeight="1">
       <c r="A54" s="10" t="s">
         <v>5</v>
       </c>
@@ -3213,17 +3314,17 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>134</v>
+        <v>441</v>
       </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" ht="96" customHeight="1">
+    <row r="55" spans="1:7" ht="49.5" customHeight="1">
       <c r="A55" s="10" t="s">
         <v>5</v>
       </c>
@@ -3231,15 +3332,17 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" ht="96" customHeight="1">
+    <row r="56" spans="1:7" ht="49.5" customHeight="1">
       <c r="A56" s="10" t="s">
         <v>5</v>
       </c>
@@ -3247,15 +3350,15 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>69</v>
+        <v>409</v>
       </c>
       <c r="E56" s="2"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="96" customHeight="1">
+    <row r="57" spans="1:7" ht="49.5" customHeight="1">
       <c r="A57" s="10" t="s">
         <v>5</v>
       </c>
@@ -3263,17 +3366,15 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>410</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>135</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="E57" s="2"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="96" customHeight="1">
+    <row r="58" spans="1:7" ht="42" customHeight="1">
       <c r="A58" s="10" t="s">
         <v>5</v>
       </c>
@@ -3281,15 +3382,17 @@
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" ht="96" customHeight="1">
+    <row r="59" spans="1:7" ht="24" customHeight="1">
       <c r="A59" s="10" t="s">
         <v>5</v>
       </c>
@@ -3297,15 +3400,15 @@
         <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>75</v>
+        <v>413</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="E59" s="2"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" ht="96" customHeight="1">
+    <row r="60" spans="1:7" ht="20.25" customHeight="1">
       <c r="A60" s="10" t="s">
         <v>5</v>
       </c>
@@ -3313,15 +3416,15 @@
         <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>81</v>
+        <v>418</v>
       </c>
       <c r="E60" s="2"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" ht="96" customHeight="1">
+    <row r="61" spans="1:7" ht="20.25" customHeight="1">
       <c r="A61" s="10" t="s">
         <v>5</v>
       </c>
@@ -3329,15 +3432,15 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>82</v>
+        <v>417</v>
       </c>
       <c r="E61" s="2"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="96" customHeight="1">
+    <row r="62" spans="1:7" ht="22.5" customHeight="1">
       <c r="A62" s="10" t="s">
         <v>5</v>
       </c>
@@ -3345,474 +3448,492 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>138</v>
+        <v>421</v>
       </c>
       <c r="E62" s="2"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" ht="96" customHeight="1">
+    <row r="63" spans="1:7" ht="22.5" customHeight="1">
       <c r="A63" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>83</v>
+        <v>419</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>87</v>
+        <v>420</v>
       </c>
       <c r="E63" s="2"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="96" customHeight="1">
+    <row r="64" spans="1:7" ht="41.25" customHeight="1">
       <c r="A64" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A65" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>422</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" ht="36" customHeight="1">
+      <c r="A66" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" ht="36" customHeight="1">
+      <c r="A67" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>425</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" ht="42" customHeight="1">
+      <c r="A68" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" ht="42" customHeight="1">
+      <c r="A69" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>428</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A70" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A71" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>425</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" ht="39" customHeight="1">
+      <c r="A72" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" ht="39" customHeight="1">
+      <c r="A73" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>431</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" ht="39.75" customHeight="1">
+      <c r="A74" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>123</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" ht="39.75" customHeight="1">
+      <c r="A75" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>434</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" ht="40.5" customHeight="1">
+      <c r="A76" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
         <v>13</v>
       </c>
-      <c r="C64" t="s">
-        <v>86</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:7" s="14" customFormat="1">
-      <c r="A65" s="12"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="17"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="G66" s="23"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="G67" s="23"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="G68" s="23"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="G69" s="23"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="G70" s="23"/>
-    </row>
-    <row r="71" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A71" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B72" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="G74" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A75" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="18" customHeight="1">
-      <c r="A76" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="19.5" customHeight="1">
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" ht="40.5" customHeight="1">
       <c r="A77" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="54.75" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s">
+        <v>437</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" ht="37.5" customHeight="1">
       <c r="A78" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>299</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>299</v>
+        <v>13</v>
+      </c>
+      <c r="C78" t="s">
+        <v>75</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="G78" s="8"/>
-    </row>
-    <row r="79" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A79" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" t="s">
-        <v>299</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="D79" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="G79" s="8"/>
-    </row>
-    <row r="80" spans="1:7" ht="19.5" customHeight="1">
+        <v>440</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" s="14" customFormat="1">
+      <c r="A79" s="12"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="17"/>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B80" t="s">
-        <v>299</v>
+      <c r="B80" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>371</v>
+        <v>6</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="G80" s="8"/>
-    </row>
-    <row r="81" spans="1:7" ht="68.25" customHeight="1">
+        <v>129</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="G80" s="23"/>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B81" t="s">
-        <v>301</v>
+      <c r="B81" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="G81" s="8"/>
-    </row>
-    <row r="82" spans="1:7" ht="19.5" customHeight="1">
+        <v>128</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="G81" s="23"/>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B82" t="s">
-        <v>301</v>
+      <c r="B82" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>302</v>
+        <v>130</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="G82" s="8"/>
-    </row>
-    <row r="83" spans="1:7" ht="19.5" customHeight="1">
+        <v>347</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="G82" s="23"/>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B83" t="s">
-        <v>301</v>
+      <c r="B83" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>374</v>
+        <v>131</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="G83" s="8"/>
-    </row>
-    <row r="84" spans="1:7" ht="19.5" customHeight="1">
+        <v>348</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="G83" s="23"/>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B84" t="s">
-        <v>303</v>
+      <c r="B84" s="18" t="s">
+        <v>6</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>303</v>
+        <v>132</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="G84" s="8"/>
-    </row>
-    <row r="85" spans="1:7" ht="19.5" customHeight="1">
+        <v>349</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="G84" s="23"/>
+    </row>
+    <row r="85" spans="1:7" ht="18.75" customHeight="1">
       <c r="A85" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>301</v>
+        <v>14</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>304</v>
+        <v>14</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="G85" s="8"/>
-    </row>
-    <row r="86" spans="1:7" ht="19.5" customHeight="1">
+        <v>329</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>301</v>
+        <v>14</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>377</v>
+        <v>267</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="G86" s="8"/>
-    </row>
-    <row r="87" spans="1:7" ht="19.5" customHeight="1">
+        <v>342</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>306</v>
+        <v>14</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="G87" s="8"/>
-    </row>
-    <row r="88" spans="1:7" ht="19.5" customHeight="1">
+        <v>268</v>
+      </c>
+      <c r="G87" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>301</v>
+        <v>14</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="G88" s="8"/>
-    </row>
-    <row r="89" spans="1:7" ht="19.5" customHeight="1">
+        <v>345</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" customHeight="1">
       <c r="A89" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>301</v>
+        <v>14</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="G89" s="8"/>
-    </row>
-    <row r="90" spans="1:7" ht="19.5" customHeight="1">
+        <v>279</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="18" customHeight="1">
       <c r="A90" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>301</v>
+        <v>14</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>382</v>
+        <v>278</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="G90" s="8"/>
+        <v>306</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="91" spans="1:7" ht="19.5" customHeight="1">
       <c r="A91" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="18" t="s">
-        <v>6</v>
+      <c r="B91" t="s">
+        <v>14</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>368</v>
+        <v>281</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="G91" s="8"/>
-    </row>
-    <row r="92" spans="1:7" ht="19.5" customHeight="1">
+        <v>355</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="54.75" customHeight="1">
       <c r="A92" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>284</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>320</v>
+        <v>284</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>350</v>
       </c>
       <c r="G92" s="8"/>
     </row>
@@ -3821,92 +3942,260 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
+        <v>284</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A94" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>284</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="1:7" ht="68.25" customHeight="1">
+      <c r="A95" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>286</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A96" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>286</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A97" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>286</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A98" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>288</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A99" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>286</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A100" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>286</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A101" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>291</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="G101" s="8"/>
+    </row>
+    <row r="102" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A102" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>286</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="G102" s="8"/>
+    </row>
+    <row r="103" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A103" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>286</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="G103" s="8"/>
+    </row>
+    <row r="104" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A104" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>286</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="G104" s="8"/>
+    </row>
+    <row r="105" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A105" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A106" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="D93" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="G93" s="8"/>
-    </row>
-    <row r="94" spans="1:7" ht="33">
-      <c r="D94" s="18"/>
-      <c r="G94" s="8" t="s">
+      <c r="C106" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="D106" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A107" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" spans="1:7" ht="33">
+      <c r="D108" s="18"/>
+      <c r="G108" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="14" customFormat="1">
-      <c r="A95" s="12"/>
-      <c r="D95" s="19"/>
-      <c r="F95" s="16"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B96" t="s">
-        <v>139</v>
-      </c>
-      <c r="C96" t="s">
-        <v>139</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="4:4">
-      <c r="D97" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="98" spans="4:4">
-      <c r="D98" s="18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="99" spans="4:4">
-      <c r="D99" s="18"/>
-    </row>
-    <row r="100" spans="4:4">
-      <c r="D100" s="18"/>
-    </row>
-    <row r="101" spans="4:4">
-      <c r="D101" s="18"/>
-    </row>
-    <row r="102" spans="4:4">
-      <c r="D102" s="18"/>
-    </row>
-    <row r="103" spans="4:4">
-      <c r="D103" s="18"/>
-    </row>
-    <row r="104" spans="4:4">
-      <c r="D104" s="18"/>
-    </row>
-    <row r="105" spans="4:4">
-      <c r="D105" s="18"/>
-    </row>
-    <row r="106" spans="4:4">
-      <c r="D106" s="18"/>
-    </row>
-    <row r="107" spans="4:4">
-      <c r="D107" s="18"/>
-    </row>
-    <row r="108" spans="4:4">
-      <c r="D108" s="18"/>
-    </row>
-    <row r="109" spans="4:4">
-      <c r="D109" s="18"/>
-    </row>
-    <row r="110" spans="4:4">
-      <c r="D110" s="18"/>
-    </row>
-    <row r="111" spans="4:4">
-      <c r="D111" s="18"/>
-    </row>
-    <row r="112" spans="4:4">
-      <c r="D112" s="18"/>
+    <row r="109" spans="1:7" s="14" customFormat="1">
+      <c r="A109" s="12"/>
+      <c r="D109" s="19"/>
+      <c r="F109" s="16"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110" t="s">
+        <v>124</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="D111" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="D112" s="18" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="113" spans="4:4">
       <c r="D113" s="18"/>
@@ -4183,6 +4472,48 @@
     </row>
     <row r="204" spans="4:4">
       <c r="D204" s="18"/>
+    </row>
+    <row r="205" spans="4:4">
+      <c r="D205" s="18"/>
+    </row>
+    <row r="206" spans="4:4">
+      <c r="D206" s="18"/>
+    </row>
+    <row r="207" spans="4:4">
+      <c r="D207" s="18"/>
+    </row>
+    <row r="208" spans="4:4">
+      <c r="D208" s="18"/>
+    </row>
+    <row r="209" spans="4:4">
+      <c r="D209" s="18"/>
+    </row>
+    <row r="210" spans="4:4">
+      <c r="D210" s="18"/>
+    </row>
+    <row r="211" spans="4:4">
+      <c r="D211" s="18"/>
+    </row>
+    <row r="212" spans="4:4">
+      <c r="D212" s="18"/>
+    </row>
+    <row r="213" spans="4:4">
+      <c r="D213" s="18"/>
+    </row>
+    <row r="214" spans="4:4">
+      <c r="D214" s="18"/>
+    </row>
+    <row r="215" spans="4:4">
+      <c r="D215" s="18"/>
+    </row>
+    <row r="216" spans="4:4">
+      <c r="D216" s="18"/>
+    </row>
+    <row r="217" spans="4:4">
+      <c r="D217" s="18"/>
+    </row>
+    <row r="218" spans="4:4">
+      <c r="D218" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4192,10 +4523,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209C90C0-2CC7-478D-B895-862FA0DD30E6}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4209,209 +4540,209 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="211.5" customHeight="1">
       <c r="A2" s="1" t="str">
-        <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$71 &amp; "'"&amp;", where "&amp;'문법설명 데이터'!$D$3&amp;"and"&amp;'문법설명 데이터'!$D$70&amp;" , "&amp;'문법설명 데이터'!$D$69&amp;" , "&amp;'문법설명 데이터'!$D$28&amp;" , "&amp;'문법설명 데이터'!$D$27&amp;" , "&amp;'문법설명 데이터'!$D$68&amp;", "&amp;'문법설명 데이터'!$D$72 &amp; ", "&amp; '문법설명 데이터'!$D$73 &amp; " , "&amp;'문법설명 데이터'!$D$74 &amp; ", "&amp;'문법설명 데이터'!$D$75&amp;" , "&amp;'문법설명 데이터'!$D$29&amp;" , "&amp;'문법설명 데이터'!$D$76&amp;" , "&amp;'문법설명 데이터'!$D$77&amp;" , "&amp;'문법설명 데이터'!$D$91&amp;" , "&amp;'문법설명 데이터'!$D$92 &amp;"'"</f>
+        <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$85 &amp; "'"&amp;", where "&amp;'문법설명 데이터'!$D$3&amp;"and"&amp;'문법설명 데이터'!$D$84&amp;" , "&amp;'문법설명 데이터'!$D$83&amp;" , "&amp;'문법설명 데이터'!$D$28&amp;" , "&amp;'문법설명 데이터'!$D$27&amp;" , "&amp;'문법설명 데이터'!$D$82&amp;", "&amp;'문법설명 데이터'!$D$86 &amp; ", "&amp; '문법설명 데이터'!$D$87 &amp; " , "&amp;'문법설명 데이터'!$D$88 &amp; ", "&amp;'문법설명 데이터'!$D$89&amp;" , "&amp;'문법설명 데이터'!$D$29&amp;" , "&amp;'문법설명 데이터'!$D$90&amp;" , "&amp;'문법설명 데이터'!$D$91&amp;" , "&amp;'문법설명 데이터'!$D$105&amp;" , "&amp;'문법설명 데이터'!$D$106 &amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;select&gt; ::= &lt;name&gt; [ &lt;bia_operation_list&gt; ] &lt;less&gt; &lt;table_list&gt; &lt;greater&gt; &lt;select_operation&gt; [ &lt;operation_option&gt; ] [ &lt;left_parenthesis&gt; &lt;search_list&gt; &lt;right_parenthesis&gt;] [&lt;right_head_arrow&gt; &lt;left_parenthesis&gt; &lt;page_name&gt; &lt;right_parenthesis&gt;]', where &lt;name&gt; ::= "a-z"|"A-Z" [ a-zA-Z0-9 | [&lt;period&gt; &lt;name&gt;] ] *and&lt;bia_operation_list&gt; ::= &lt;bia_operation&gt; [ &lt;semicolon&gt; &lt;bia_operation" ] , &lt;bia_operation&gt; ::= &lt;left_parenthesis&gt; &lt;operation&gt; [ "B" | "I" | "A" ] &lt;right_parenthesis&gt; , &lt;table_list&gt; ::= &lt;table_name&gt; [ &lt;comma&gt; [&lt;table_name&gt;] ] , &lt;table_name&gt; ::= "a-z"|"A-Z" [ a-zA-Z0-9 | [&lt;underscore&gt; &lt;table_name&gt;] ] * , &lt;operation_option&gt; ::= &lt;colon&gt; [ "i" | "v" | "V" | "G" | "S" ]*, &lt;search_list&gt; ::= &lt;search_name&gt; [ &lt;comma&gt; [&lt;search_name&gt;] ], &lt;search_name&gt; ::= &lt;name&gt; | &lt;combo&gt; | &lt;comparison&gt; , &lt;combo&gt; ::= &lt;combo_prefix&gt; &lt;left_parenthesis&gt; [&lt;name_list&gt;] &lt;right_parenthesis&gt;, &lt;comparison&gt; ::= &lt;name&gt; &lt;comparison_operation&gt; &lt;name&gt; , &lt;page_name&gt; ::= "a-z"|"A-Z" [ a-zA-Z0-9 | [&lt;underscore&gt; &lt;page_name&gt;] ] * , &lt;comparison_operation&gt; ::= &lt;select_operation_prefix&gt; &lt;select_operation_symbol&gt; , &lt;select_operation&gt; ::= &lt;operation_prefix&gt; &lt;select_operation_symbol&gt; , &lt;operation_prefix&gt; ::= "^" , &lt;select_operation_symbol&gt; ::= "s" | "S" [ "P" | "N" | "I" ] [ "F" | "W" ]'</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f t="shared" ref="D2:D4" si="0">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A2&amp;" ### Response: "&amp;C2</f>
+        <f t="shared" ref="D2:D5" si="0">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A2&amp;" ### Response: "&amp;C2</f>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;select&gt; ::= &lt;name&gt; [ &lt;bia_operation_list&gt; ] &lt;less&gt; &lt;table_list&gt; &lt;greater&gt; &lt;select_operation&gt; [ &lt;operation_option&gt; ] [ &lt;left_parenthesis&gt; &lt;search_list&gt; &lt;right_parenthesis&gt;] [&lt;right_head_arrow&gt; &lt;left_parenthesis&gt; &lt;page_name&gt; &lt;right_parenthesis&gt;]', where &lt;name&gt; ::= "a-z"|"A-Z" [ a-zA-Z0-9 | [&lt;period&gt; &lt;name&gt;] ] *and&lt;bia_operation_list&gt; ::= &lt;bia_operation&gt; [ &lt;semicolon&gt; &lt;bia_operation" ] , &lt;bia_operation&gt; ::= &lt;left_parenthesis&gt; &lt;operation&gt; [ "B" | "I" | "A" ] &lt;right_parenthesis&gt; , &lt;table_list&gt; ::= &lt;table_name&gt; [ &lt;comma&gt; [&lt;table_name&gt;] ] , &lt;table_name&gt; ::= "a-z"|"A-Z" [ a-zA-Z0-9 | [&lt;underscore&gt; &lt;table_name&gt;] ] * , &lt;operation_option&gt; ::= &lt;colon&gt; [ "i" | "v" | "V" | "G" | "S" ]*, &lt;search_list&gt; ::= &lt;search_name&gt; [ &lt;comma&gt; [&lt;search_name&gt;] ], &lt;search_name&gt; ::= &lt;name&gt; | &lt;combo&gt; | &lt;comparison&gt; , &lt;combo&gt; ::= &lt;combo_prefix&gt; &lt;left_parenthesis&gt; [&lt;name_list&gt;] &lt;right_parenthesis&gt;, &lt;comparison&gt; ::= &lt;name&gt; &lt;comparison_operation&gt; &lt;name&gt; , &lt;page_name&gt; ::= "a-z"|"A-Z" [ a-zA-Z0-9 | [&lt;underscore&gt; &lt;page_name&gt;] ] * , &lt;comparison_operation&gt; ::= &lt;select_operation_prefix&gt; &lt;select_operation_symbol&gt; , &lt;select_operation&gt; ::= &lt;operation_prefix&gt; &lt;select_operation_symbol&gt; , &lt;operation_prefix&gt; ::= "^" , &lt;select_operation_symbol&gt; ::= "s" | "S" [ "P" | "N" | "I" ] [ "F" | "W" ]' ### Response: Parsing Structure:  - &lt;select&gt;  selectAuthor &lt; tb_authors &gt; ^ SN : iG - &lt;name&gt; selectAuthor - &lt;less&gt; &lt; - &lt;table_list&gt; - &lt;table_name&gt; tb_authors - &lt;greater&gt; &gt; - &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; SN - &lt;operation_option&gt;iG Validity: Ok 0000</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="99">
-      <c r="A3" s="1" t="str">
-        <f>'문법설명 데이터'!$D$1</f>
-        <v xml:space="preserve">Determine whether the given script follows the defined anyx BNF structure: </v>
+    <row r="3" spans="1:5" ht="138" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>442</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt;  selectCodeStore &lt;tb_code &gt; ^ SN : iG - &lt;name&gt; selectCodeStore - &lt;less&gt; &lt; - &lt;table_list&gt; - &lt;table_name&gt; tb_code - &lt;greater&gt; &gt; - &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; SN - &lt;operation_option&gt;iG Validity: Ok 0000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="99">
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: anyx BNF 식에서 "&lt;" 는 반드시 쌍으로 "&gt;" 가필요하다 ### Response: Parsing Structure:  - &lt;select&gt;  selectAuthor &lt; tb_authors &gt; ^ SN : iG - &lt;name&gt; selectAuthor - &lt;less&gt; &lt; - &lt;table_list&gt; - &lt;table_name&gt; tb_authors - &lt;greater&gt; &gt; - &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; SN - &lt;operation_option&gt;iG Validity: Ok 0000</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="115.5">
       <c r="A4" s="1" t="str">
         <f>'문법설명 데이터'!$D$1</f>
         <v xml:space="preserve">Determine whether the given script follows the defined anyx BNF structure: </v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt; selectCodeSession &lt;tb_code &gt; ^ SN : iS - &lt;name&gt; selectCodeSession - &lt;less&gt; &lt; - &lt;table_list&gt; - &lt;table_name&gt; tb_code - &lt;greater&gt; &gt; - &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; SN - &lt;operation_option&gt;iS Validity: Ok 0000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="99">
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt;  selectCodeStore &lt;tb_code &gt; ^ SN : iG - &lt;name&gt; selectCodeStore - &lt;less&gt; &lt; - &lt;table_list&gt; - &lt;table_name&gt; tb_code - &lt;greater&gt; &gt; - &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; SN - &lt;operation_option&gt;iG Validity: Ok 0000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="115.5">
       <c r="A5" s="1" t="str">
         <f>'문법설명 데이터'!$D$1</f>
         <v xml:space="preserve">Determine whether the given script follows the defined anyx BNF structure: </v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" ref="D5:D7" si="1">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A5&amp;" ### Response: "&amp;C5</f>
-        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt; selectBookTaService &lt; tb_book_ta &gt; ^ SN - &lt;name&gt; selectBookTaService - &lt;less&gt; &lt; - &lt;table_list&gt;  - &lt;table_name&gt; tb_book_ta - &lt;greater&gt; &gt; - &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; SN Validity: Ok 0000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="115.5">
+        <f t="shared" si="0"/>
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt; selectCodeSession &lt;tb_code &gt; ^ SN : iS - &lt;name&gt; selectCodeSession - &lt;less&gt; &lt; - &lt;table_list&gt; - &lt;table_name&gt; tb_code - &lt;greater&gt; &gt; - &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; SN - &lt;operation_option&gt;iS Validity: Ok 0000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="99">
       <c r="A6" s="1" t="str">
         <f>'문법설명 데이터'!$D$1</f>
         <v xml:space="preserve">Determine whether the given script follows the defined anyx BNF structure: </v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt; loginUser ^ s  : G ( name, pw ) - &lt;name&gt; loginUser &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; s - &lt;operation_option&gt; G &lt;serch_list&gt; - &lt;search_name&gt; name - &lt;search_name&gt; pw Validity: Ok 0000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="297">
+        <f t="shared" ref="D6:D8" si="1">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A6&amp;" ### Response: "&amp;C6</f>
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt; selectBookTaService &lt; tb_book_ta &gt; ^ SN - &lt;name&gt; selectBookTaService - &lt;less&gt; &lt; - &lt;table_list&gt;  - &lt;table_name&gt; tb_book_ta - &lt;greater&gt; &gt; - &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; SN Validity: Ok 0000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="99">
       <c r="A7" s="1" t="str">
         <f>'문법설명 데이터'!$D$1</f>
         <v xml:space="preserve">Determine whether the given script follows the defined anyx BNF structure: </v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt; selectBook &lt;tb_book_ta,  tb_bookdetail_ta &gt; ^ SP : i ( count, title, publisher  , combo( price, page_count) ,   edition,  language,  publication_date &gt; start_dt, publication_date &lt; end_dt ) - &lt;name&gt; selectBook - &lt;less&gt; &lt; - &lt;table_list&gt; - &lt;table_name&gt; tb_book_ta - &lt;table_name&gt; tb_bookdetail_ta - &lt;greater&gt; &gt; - &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; SP - &lt;operation_option&gt; i &lt;serch_list&gt; - &lt;search_name&gt; count  - &lt;search_name&gt; title  - &lt;search_name&gt; publisher   - &lt;search_name&gt; - &lt;combo&gt; - &lt;name_list&gt; -&lt;name&gt; price - &lt;name&gt; page_count - &lt;search_name&gt; edition - &lt;search_name&gt;  language - &lt;search_name&gt; - &lt;comparison&gt;  - &lt;name&gt; publication_date - &lt;comparison_operation&gt; &gt; - &lt;name&gt; start_dt - &lt;search_name&gt; - &lt;comparison&gt; - &lt;name&gt; publication_date -&lt;comparison_operation&gt; &lt; - &lt;name&gt; end_dt Validity: Ok 0000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="231">
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt; loginUser ^ s  : G ( name, pw ) - &lt;name&gt; loginUser &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; s - &lt;operation_option&gt; G &lt;serch_list&gt; - &lt;search_name&gt; name - &lt;search_name&gt; pw Validity: Ok 0000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="297">
       <c r="A8" s="1" t="str">
         <f>'문법설명 데이터'!$D$1</f>
         <v xml:space="preserve">Determine whether the given script follows the defined anyx BNF structure: </v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>323</v>
+        <v>400</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f t="shared" ref="D8" si="2">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A8&amp;" ### Response: "&amp;C8</f>
-        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt; bestAuthors &lt; tb_authors &gt; ^ SN : iv ( author_id, author ) - &lt;name&gt; bestAuthors - &lt;table_list&gt; - &lt;table_name&gt; tb_authors  - &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; SN - &lt;operation_option&gt; i &lt;serch_list&gt; - &lt;search_name&gt; count  - &lt;search_name&gt; title  - &lt;search_name&gt; publisher   - &lt;search_name&gt; - &lt;combo&gt; - &lt;name_list&gt; -&lt;name&gt; price - &lt;name&gt; page_count - &lt;search_name&gt; edition - &lt;search_name&gt;  language - &lt;search_name&gt; - &lt;comparison&gt;  - &lt;name&gt; publication_date - &lt;comparison_operation&gt; &gt; - &lt;name&gt; start_dt - &lt;search_name&gt; - &lt;comparison&gt; - &lt;name&gt; publication_date -&lt;comparison_operation&gt; &lt; - &lt;name&gt; end_dt Validity: Ok 0000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="148.5">
+        <f t="shared" si="1"/>
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt; selectBook &lt;tb_book_ta,  tb_bookdetail_ta &gt; ^ SP : i ( count, title, publisher  , combo( price, page_count) ,   edition,  language,  publication_date &gt; start_dt, publication_date &lt; end_dt ) - &lt;name&gt; selectBook - &lt;less&gt; &lt; - &lt;table_list&gt; - &lt;table_name&gt; tb_book_ta - &lt;table_name&gt; tb_bookdetail_ta - &lt;greater&gt; &gt; - &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; SP - &lt;operation_option&gt; i &lt;serch_list&gt; - &lt;search_name&gt; count  - &lt;search_name&gt; title  - &lt;search_name&gt; publisher   - &lt;search_name&gt; - &lt;combo&gt; - &lt;name_list&gt; -&lt;name&gt; price - &lt;name&gt; page_count - &lt;search_name&gt; edition - &lt;search_name&gt;  language - &lt;search_name&gt; - &lt;comparison&gt;  - &lt;name&gt; publication_date - &lt;comparison_operation&gt; &gt; - &lt;name&gt; start_dt - &lt;search_name&gt; - &lt;comparison&gt; - &lt;name&gt; publication_date -&lt;comparison_operation&gt; &lt; - &lt;name&gt; end_dt Validity: Ok 0000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="231">
       <c r="A9" s="1" t="str">
         <f>'문법설명 데이터'!$D$1</f>
         <v xml:space="preserve">Determine whether the given script follows the defined anyx BNF structure: </v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f t="shared" ref="D9" si="3">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A9&amp;" ### Response: "&amp;C9</f>
-        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt; selectBookInfinity &lt; tb_book_ta &gt;  ^ SI : iv (title, publisher, combo(genre, price, page_count)) - &lt;name&gt; selectBookInfinity - &lt;table_list&gt; - &lt;table_name&gt; tb_book_ta  - &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; SI - &lt;operation_option&gt; iv &lt;serch_list&gt; - &lt;search_name&gt; title  - &lt;search_name&gt; publisher - &lt;search_name&gt; - &lt;combo&gt; - &lt;name_list&gt; -&lt;name&gt; genre - &lt;name&gt; price - &lt;name&gt;  page_count  Validity: Ok 0000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="165">
+        <f t="shared" ref="D9" si="2">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A9&amp;" ### Response: "&amp;C9</f>
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt; bestAuthors &lt; tb_authors &gt; ^ SN : iv ( author_id, author ) - &lt;name&gt; bestAuthors - &lt;table_list&gt; - &lt;table_name&gt; tb_authors  - &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; SN - &lt;operation_option&gt; i &lt;serch_list&gt; - &lt;search_name&gt; count  - &lt;search_name&gt; title  - &lt;search_name&gt; publisher   - &lt;search_name&gt; - &lt;combo&gt; - &lt;name_list&gt; -&lt;name&gt; price - &lt;name&gt; page_count - &lt;search_name&gt; edition - &lt;search_name&gt;  language - &lt;search_name&gt; - &lt;comparison&gt;  - &lt;name&gt; publication_date - &lt;comparison_operation&gt; &gt; - &lt;name&gt; start_dt - &lt;search_name&gt; - &lt;comparison&gt; - &lt;name&gt; publication_date -&lt;comparison_operation&gt; &lt; - &lt;name&gt; end_dt Validity: Ok 0000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="148.5">
       <c r="A10" s="1" t="str">
         <f>'문법설명 데이터'!$D$1</f>
         <v xml:space="preserve">Determine whether the given script follows the defined anyx BNF structure: </v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f t="shared" ref="D10:D12" si="4">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A10&amp;" ### Response: "&amp;C10</f>
-        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt; selectBookNonPageing &lt;tb_book_ta&gt; ^ SNW : iv (title, publisher, combo(genre, price, page_count)) - &lt;name&gt; selectBookNonPageing - &lt;table_list&gt; - &lt;table_name&gt; tb_book_ta  - &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; SNW - &lt;operation_option&gt; iv &lt;serch_list&gt; - &lt;search_name&gt; title  - &lt;search_name&gt; publisher - &lt;search_name&gt; - &lt;combo&gt; - &lt;name_list&gt; -&lt;name&gt; genre - &lt;name&gt; price - &lt;name&gt;  page_count  Validity: Ok 0000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="99">
+        <f t="shared" ref="D10" si="3">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A10&amp;" ### Response: "&amp;C10</f>
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt; selectBookInfinity &lt; tb_book_ta &gt;  ^ SI : iv (title, publisher, combo(genre, price, page_count)) - &lt;name&gt; selectBookInfinity - &lt;table_list&gt; - &lt;table_name&gt; tb_book_ta  - &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; SI - &lt;operation_option&gt; iv &lt;serch_list&gt; - &lt;search_name&gt; title  - &lt;search_name&gt; publisher - &lt;search_name&gt; - &lt;combo&gt; - &lt;name_list&gt; -&lt;name&gt; genre - &lt;name&gt; price - &lt;name&gt;  page_count  Validity: Ok 0000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="165">
       <c r="A11" s="1" t="str">
         <f>'문법설명 데이터'!$D$1</f>
         <v xml:space="preserve">Determine whether the given script follows the defined anyx BNF structure: </v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt;  selectCodeStore &lt;tb_code &gt; ^ SN : iG - &lt;name&gt; selectCodeStore - &lt;table_list&gt; - &lt;table_name&gt; tb_code - &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; SN - &lt;operation_option&gt;iG Validity: Ok 0000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="82.5">
+        <f t="shared" ref="D11:D13" si="4">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A11&amp;" ### Response: "&amp;C11</f>
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt; selectBookNonPageing &lt;tb_book_ta&gt; ^ SNW : iv (title, publisher, combo(genre, price, page_count)) - &lt;name&gt; selectBookNonPageing - &lt;table_list&gt; - &lt;table_name&gt; tb_book_ta  - &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; SNW - &lt;operation_option&gt; iv &lt;serch_list&gt; - &lt;search_name&gt; title  - &lt;search_name&gt; publisher - &lt;search_name&gt; - &lt;combo&gt; - &lt;name_list&gt; -&lt;name&gt; genre - &lt;name&gt; price - &lt;name&gt;  page_count  Validity: Ok 0000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="99">
       <c r="A12" s="1" t="str">
         <f>'문법설명 데이터'!$D$1</f>
         <v xml:space="preserve">Determine whether the given script follows the defined anyx BNF structure: </v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt;  selectCodeStore &lt;tb_code &gt;  SN : iG  Validity: Error OP-001 "^"가 operation 구분전에 필요합니다.</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="66">
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt;  selectCodeStore &lt;tb_code &gt; ^ SN : iG - &lt;name&gt; selectCodeStore - &lt;table_list&gt; - &lt;table_name&gt; tb_code - &lt;select_operation&gt; - &lt;select_operation_prefix&gt; ^ - &lt;select_operation_symbol&gt; SN - &lt;operation_option&gt;iG Validity: Ok 0000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="82.5">
       <c r="A13" s="1" t="str">
         <f>'문법설명 데이터'!$D$1</f>
         <v xml:space="preserve">Determine whether the given script follows the defined anyx BNF structure: </v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f t="shared" ref="D13" si="5">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A13&amp;" ### Response: "&amp;C13</f>
-        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt;  selectCodeStore tb_code &gt; ^ SN : iG  Validity: Error OP-001 "&gt;" 는 "&lt;" 이 필요합니다.</v>
+        <f t="shared" si="4"/>
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt;  selectCodeStore &lt;tb_code &gt;  SN : iG  Validity: Error OP-001 "^"가 operation 구분전에 필요합니다.</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="66">
@@ -4420,14 +4751,14 @@
         <v xml:space="preserve">Determine whether the given script follows the defined anyx BNF structure: </v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" ref="D14" si="6">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A14&amp;" ### Response: "&amp;C14</f>
-        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt;  selectCodeStore &lt;tb_code  ^ SN : iG  Validity: Error OP-002 "&lt;" 는 "&gt;" 이 필요합니다.</v>
+        <f t="shared" ref="D14" si="5">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A14&amp;" ### Response: "&amp;C14</f>
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt;  selectCodeStore tb_code &gt; ^ SN : iG  Validity: Error OP-001 "&gt;" 는 "&lt;" 이 필요합니다.</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="66">
@@ -4436,14 +4767,14 @@
         <v xml:space="preserve">Determine whether the given script follows the defined anyx BNF structure: </v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f t="shared" ref="D15" si="7">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A15&amp;" ### Response: "&amp;C15</f>
-        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt;  selectCodeStore &lt;&lt;tb_code &gt; ^ SN : iG  Validity: Error OP-002 "&lt;" 는 "&gt;" 이 필요합니다.</v>
+        <f t="shared" ref="D15" si="6">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A15&amp;" ### Response: "&amp;C15</f>
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt;  selectCodeStore &lt;tb_code  ^ SN : iG  Validity: Error OP-002 "&lt;" 는 "&gt;" 이 필요합니다.</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="66">
@@ -4452,14 +4783,14 @@
         <v xml:space="preserve">Determine whether the given script follows the defined anyx BNF structure: </v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f t="shared" ref="D16" si="8">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A16&amp;" ### Response: "&amp;C16</f>
-        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt;  selectCodeStore &lt;tb_code &gt;&gt; ^ SN : iG  Validity: Error OP-001 "&gt;" 는 "&lt;" 이 필요합니다.</v>
+        <f t="shared" ref="D16" si="7">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A16&amp;" ### Response: "&amp;C16</f>
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt;  selectCodeStore &lt;&lt;tb_code &gt; ^ SN : iG  Validity: Error OP-002 "&lt;" 는 "&gt;" 이 필요합니다.</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="66">
@@ -4468,13 +4799,29 @@
         <v xml:space="preserve">Determine whether the given script follows the defined anyx BNF structure: </v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" ref="D17" si="9">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A17&amp;" ### Response: "&amp;C17</f>
+        <f t="shared" ref="D17" si="8">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A17&amp;" ### Response: "&amp;C17</f>
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt;  selectCodeStore &lt;tb_code &gt;&gt; ^ SN : iG  Validity: Error OP-001 "&gt;" 는 "&lt;" 이 필요합니다.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="66">
+      <c r="A18" s="1" t="str">
+        <f>'문법설명 데이터'!$D$1</f>
+        <v xml:space="preserve">Determine whether the given script follows the defined anyx BNF structure: </v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" ref="D18" si="9">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A18&amp;" ### Response: "&amp;C18</f>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure:  ### Response: Parsing Structure:  - &lt;select&gt;  selectCodeStore &lt;tb_code &gt; ^ SN : iG  Validity: Error OP-001 "&gt;" 는 "&lt;" 이 필요합니다.</v>
       </c>
     </row>
@@ -4515,28 +4862,28 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="66">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="49.5">
       <c r="A2" s="1" t="str">
         <f>"Determine if the given name follows the defined BNF structure: `"&amp;'문법설명 데이터'!$D$3&amp;"`"</f>
         <v>Determine if the given name follows the defined BNF structure: `&lt;name&gt; ::= "a-z"|"A-Z" [ a-zA-Z0-9 | [&lt;period&gt; &lt;name&gt;] ] *`</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D2" s="1" t="str">
         <f t="shared" ref="D2:D7" si="0">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A2&amp;" ### Response: "&amp;C2</f>
@@ -4549,74 +4896,74 @@
         <v>Determine if the given name follows the defined BNF structure: `&lt;name&gt; ::= "a-z"|"A-Z" [ a-zA-Z0-9 | [&lt;period&gt; &lt;name&gt;] ] *`</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine if the given name follows the defined BNF structure: `&lt;name&gt; ::= "a-z"|"A-Z" [ a-zA-Z0-9 | [&lt;period&gt; &lt;name&gt;] ] *` ### Response: Parsing Structure:  - &lt;name&gt; : selectBook Validity: Ok 0000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="66">
+    <row r="4" spans="1:4" ht="49.5">
       <c r="A4" s="1" t="str">
         <f>"Determine if the given name follows the defined BNF structure: `"&amp;'문법설명 데이터'!$D$3&amp;"`"</f>
         <v>Determine if the given name follows the defined BNF structure: `&lt;name&gt; ::= "a-z"|"A-Z" [ a-zA-Z0-9 | [&lt;period&gt; &lt;name&gt;] ] *`</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine if the given name follows the defined BNF structure: `&lt;name&gt; ::= "a-z"|"A-Z" [ a-zA-Z0-9 | [&lt;period&gt; &lt;name&gt;] ] *` ### Response: Parsing Structure:  - &lt;name&gt; : BookIsMine Validity: Ok 0000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="66">
+    <row r="5" spans="1:4" ht="49.5">
       <c r="A5" s="1" t="str">
         <f>"Determine if the given name follows the defined BNF structure: `"&amp;'문법설명 데이터'!$D$3&amp;"`"</f>
         <v>Determine if the given name follows the defined BNF structure: `&lt;name&gt; ::= "a-z"|"A-Z" [ a-zA-Z0-9 | [&lt;period&gt; &lt;name&gt;] ] *`</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine if the given name follows the defined BNF structure: `&lt;name&gt; ::= "a-z"|"A-Z" [ a-zA-Z0-9 | [&lt;period&gt; &lt;name&gt;] ] *` ### Response: Parsing Structure:  - &lt;name&gt; : BookIsMine10 Validity: Ok 0000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="66">
+    <row r="6" spans="1:4" ht="49.5">
       <c r="A6" s="1" t="str">
         <f>"Determine if the given name follows the defined BNF structure: `"&amp;'문법설명 데이터'!$D$3&amp;"`"</f>
         <v>Determine if the given name follows the defined BNF structure: `&lt;name&gt; ::= "a-z"|"A-Z" [ a-zA-Z0-9 | [&lt;period&gt; &lt;name&gt;] ] *`</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine if the given name follows the defined BNF structure: `&lt;name&gt; ::= "a-z"|"A-Z" [ a-zA-Z0-9 | [&lt;period&gt; &lt;name&gt;] ] *` ### Response: Parsing Structure:  - &lt;name&gt; : BookIsMine.myWay Validity: Ok 0000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="66">
+    <row r="7" spans="1:4" ht="49.5">
       <c r="A7" s="1" t="str">
         <f>"Determine if the given name follows the defined BNF structure: `"&amp;'문법설명 데이터'!$D$3&amp;"`"</f>
         <v>Determine if the given name follows the defined BNF structure: `&lt;name&gt; ::= "a-z"|"A-Z" [ a-zA-Z0-9 | [&lt;period&gt; &lt;name&gt;] ] *`</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4629,10 +4976,10 @@
         <v>Determine if the given name follows the defined BNF structure: `&lt;name&gt; ::= "a-z"|"A-Z" [ a-zA-Z0-9 | [&lt;period&gt; &lt;name&gt;] ] *`</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" ref="D8:D49" si="1">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A8&amp;" ### Response: "&amp;C8</f>
@@ -4645,10 +4992,10 @@
         <v>Determine if the given name follows the defined BNF structure: `&lt;name&gt; ::= "a-z"|"A-Z" [ a-zA-Z0-9 | [&lt;period&gt; &lt;name&gt;] ] *`</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" ref="D9" si="2">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A9&amp;" ### Response: "&amp;C9</f>
@@ -4661,10 +5008,10 @@
         <v>Determine if the given name follows the defined BNF structure: `&lt;name&gt; ::= "a-z"|"A-Z" [ a-zA-Z0-9 | [&lt;period&gt; &lt;name&gt;] ] *`</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4673,28 +5020,28 @@
     </row>
     <row r="11" spans="1:4" ht="99">
       <c r="A11" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine if the given name follows the defined BNF structure: `&lt;name_list&gt; ::= &lt;name&gt; [ "," &lt;name&gt; ], where &lt;name&gt; ::= &lt;letter&gt; [ &lt;alphanumeric&gt; | ["." &lt;name&gt;] ] *`, `&lt;letter&gt; ::= "a-z"|"A-Z"` and `&lt;alphanumeric&gt; ::= [ a-zA-Z0-9 ]` ### Response: Parsing Structure:  - &lt;name_list&gt; : listName1, listName2 - &lt;name&gt; listName1 - &lt;letter&gt;: l - &lt;alphanumeric&gt;: listName1 - &lt;name&gt; listName2 - &lt;letter&gt; l - &lt;alphanumeric&gt; istName2 Validity: Ok 0000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="82.5">
+    <row r="12" spans="1:4" ht="99">
       <c r="A12" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" ref="D12:D14" si="3">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A12&amp;" ### Response: "&amp;C12</f>
@@ -4703,13 +5050,13 @@
     </row>
     <row r="13" spans="1:4" ht="66">
       <c r="A13" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4722,10 +5069,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] }', where &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; and&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="3"/>
@@ -4738,10 +5085,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] }', where &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; and&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" ref="D15" si="4">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A15&amp;" ### Response: "&amp;C15</f>
@@ -4754,10 +5101,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] }', where &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; and&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B16" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C16" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" ref="D16" si="5">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A16&amp;" ### Response: "&amp;C16</f>
@@ -4770,362 +5117,362 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] }', where &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; and&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" t="s">
         <v>180</v>
-      </c>
-      <c r="C17" t="s">
-        <v>195</v>
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" ref="D17:D19" si="6">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A17&amp;" ### Response: "&amp;C17</f>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] }', where &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; and&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Error 0004 : Syntax Error - ',' 전에 표현식(expression)이 필요합니다.</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="165">
+    <row r="18" spans="1:4" ht="247.5">
       <c r="A18" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$6 &amp; "'"&amp;", where "&amp;'문법설명 데이터'!$D$7&amp;" and "&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$4&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt;', where &lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt; and &lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;name_list&gt; ::= &lt;name&gt; { [ &lt;comma&gt; [&lt;name&gt;] ] } , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D18" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt;', where &lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt; and &lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;name_list&gt; ::= &lt;name&gt; { [ &lt;comma&gt; [&lt;name&gt;] ] } , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Ok 0000 : expression</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="198">
+    <row r="19" spans="1:4" ht="247.5">
       <c r="A19" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$6 &amp; "'"&amp;", where "&amp;'문법설명 데이터'!$D$7&amp;" and "&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$4&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt;', where &lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt; and &lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;name_list&gt; ::= &lt;name&gt; { [ &lt;comma&gt; [&lt;name&gt;] ] } , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt;', where &lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt; and &lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;name_list&gt; ::= &lt;name&gt; { [ &lt;comma&gt; [&lt;name&gt;] ] } , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Ok 0000 : expression</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="198">
+    <row r="20" spans="1:4" ht="247.5">
       <c r="A20" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$6 &amp; "'"&amp;", where "&amp;'문법설명 데이터'!$D$7&amp;" and "&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$4&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt;', where &lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt; and &lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;name_list&gt; ::= &lt;name&gt; { [ &lt;comma&gt; [&lt;name&gt;] ] } , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" ref="D20" si="7">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A20&amp;" ### Response: "&amp;C20</f>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt;', where &lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt; and &lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;name_list&gt; ::= &lt;name&gt; { [ &lt;comma&gt; [&lt;name&gt;] ] } , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Ok 0000 : expression</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="198">
+    <row r="21" spans="1:4" ht="247.5">
       <c r="A21" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$6 &amp; "'"&amp;", where "&amp;'문법설명 데이터'!$D$7&amp;" and "&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$4&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt;', where &lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt; and &lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;name_list&gt; ::= &lt;name&gt; { [ &lt;comma&gt; [&lt;name&gt;] ] } , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" ref="D21:D22" si="8">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A21&amp;" ### Response: "&amp;C21</f>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt;', where &lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt; and &lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;name_list&gt; ::= &lt;name&gt; { [ &lt;comma&gt; [&lt;name&gt;] ] } , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Ok 0000 : expression</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="165">
+    <row r="22" spans="1:4" ht="231">
       <c r="A22" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"&amp;", where "&amp;"and"&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$6&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B22" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Ok 0000 : function</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="165">
+    <row r="23" spans="1:4" ht="231">
       <c r="A23" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"&amp;", where "&amp;"and"&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$6&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B23" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" ref="D23:D25" si="9">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A23&amp;" ### Response: "&amp;C23</f>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Ok 0000 : function</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="165">
+    <row r="24" spans="1:4" ht="231">
       <c r="A24" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"&amp;", where "&amp;"and"&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$6&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B24" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" ref="D24" si="10">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A24&amp;" ### Response: "&amp;C24</f>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Ok 0000 : function</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="181.5">
+    <row r="25" spans="1:4" ht="231">
       <c r="A25" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"&amp;", where "&amp;"and"&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$6&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B25" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Ok 0000 : function</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="181.5">
+    <row r="26" spans="1:4" ht="231">
       <c r="A26" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"&amp;", where "&amp;"and"&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$6&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B26" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" ref="D26:D27" si="11">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A26&amp;" ### Response: "&amp;C26</f>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Ok 0000 : function</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="181.5">
+    <row r="27" spans="1:4" ht="231">
       <c r="A27" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"&amp;", where "&amp;"and"&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$6&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B27" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C27" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="11"/>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Ok 0000 : function</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="181.5">
+    <row r="28" spans="1:4" ht="231">
       <c r="A28" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"&amp;", where "&amp;"and"&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$6&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B28" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" ref="D28" si="12">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A28&amp;" ### Response: "&amp;C28</f>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Ok 0000 : function</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="181.5">
+    <row r="29" spans="1:4" ht="231">
       <c r="A29" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"&amp;", where "&amp;"and"&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$6&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B29" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C29" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" ref="D29" si="13">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A29&amp;" ### Response: "&amp;C29</f>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Ok 0000 : function</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="181.5">
+    <row r="30" spans="1:4" ht="231">
       <c r="A30" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"&amp;", where "&amp;"and"&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$6&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B30" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C30" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D30" s="1" t="str">
         <f t="shared" ref="D30" si="14">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A30&amp;" ### Response: "&amp;C30</f>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Error 0005 : Syntax Error - '('가 필요합니다.</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="181.5">
+    <row r="31" spans="1:4" ht="231">
       <c r="A31" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"&amp;", where "&amp;"and"&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$6&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B31" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C31" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D31" s="1" t="str">
         <f t="shared" ref="D31" si="15">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A31&amp;" ### Response: "&amp;C31</f>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Error 0005 : Syntax Error - '('가 필요합니다.</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="181.5">
+    <row r="32" spans="1:4" ht="231">
       <c r="A32" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"&amp;", where "&amp;"and"&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$6&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B32" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C32" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D32" s="1" t="str">
         <f t="shared" ref="D32" si="16">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A32&amp;" ### Response: "&amp;C32</f>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Error 0005 : Syntax Error - '('가 불필요합니다.</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="181.5">
+    <row r="33" spans="1:4" ht="231">
       <c r="A33" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"&amp;", where "&amp;"and"&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$6&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B33" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C33" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D33" s="1" t="str">
         <f t="shared" ref="D33" si="17">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A33&amp;" ### Response: "&amp;C33</f>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Error 0005 : Syntax Error - '('가 불필요합니다.</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="181.5">
+    <row r="34" spans="1:4" ht="231">
       <c r="A34" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"&amp;", where "&amp;"and"&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$6&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B34" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D34" s="1" t="str">
         <f t="shared" ref="D34" si="18">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A34&amp;" ### Response: "&amp;C34</f>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Error 0006 : Syntax Error - '('가 불필요합니다.</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="181.5">
+    <row r="35" spans="1:4" ht="231">
       <c r="A35" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"&amp;", where "&amp;"and"&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$6&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B35" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C35" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D35" s="1" t="str">
         <f t="shared" ref="D35:D36" si="19">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A35&amp;" ### Response: "&amp;C35</f>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Error 0006 : Syntax Error - '( ('가 불필요합니다.</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="181.5">
+    <row r="36" spans="1:4" ht="231">
       <c r="A36" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"&amp;", where "&amp;"and"&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$6&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B36" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C36" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D36" s="1" t="str">
         <f t="shared" si="19"/>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Error 0007 : Syntax Error - ')'가 필요합니다.</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="181.5">
+    <row r="37" spans="1:4" ht="231">
       <c r="A37" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"&amp;", where "&amp;"and"&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$6&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B37" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C37" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D37" s="1" t="str">
         <f t="shared" ref="D37" si="20">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A37&amp;" ### Response: "&amp;C37</f>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Error 0007 : Syntax Error - ')'가 필요합니다.</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="181.5">
+    <row r="38" spans="1:4" ht="231">
       <c r="A38" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"&amp;", where "&amp;"and"&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$6&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B38" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D38" s="1" t="str">
         <f t="shared" ref="D38" si="21">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A38&amp;" ### Response: "&amp;C38</f>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +' ### Response: Error 0007 : Syntax Error - ')'가 불필요합니다.</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="181.5">
+    <row r="39" spans="1:4" ht="231">
       <c r="A39" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"&amp;", where "&amp;"and"&amp;'문법설명 데이터'!$D$5&amp;" , "&amp;'문법설명 데이터'!$D$6&amp;" , "&amp;'문법설명 데이터'!$D$9&amp;" , "&amp;'문법설명 데이터'!$D$11&amp;" , "&amp;'문법설명 데이터'!$D$12&amp;" , "&amp;'문법설명 데이터'!$D$13&amp;", "&amp;'문법설명 데이터'!$D$14 &amp; ", "&amp; '문법설명 데이터'!$D$15 &amp; " , "&amp;'문법설명 데이터'!$D$16 &amp; ", "&amp;'문법설명 데이터'!$D$17&amp;" , "&amp;'문법설명 데이터'!$D$20 &amp; " , "&amp;'문법설명 데이터'!$D$21&amp;" , "&amp;'문법설명 데이터'!$D$22&amp;" , "&amp;'문법설명 데이터'!$D$23&amp;"'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;', where and&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] } , &lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt; , &lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt; , &lt;value&gt; ::= &lt;object&gt; | &lt;array&gt; | &lt;string&gt; | &lt;number&gt; | &lt;boolean&gt; | &lt;null&gt; , &lt;value&gt; ::= &lt;value&gt; { [ &lt;comma&gt; &lt;value&gt; ] } , &lt;object&gt; ::= &lt;left_brace&gt; &lt;key_value_pair_list&gt; &lt;right_brace&gt;, &lt;array&gt; ::= &lt;left_bracket&gt; [ &lt;value_list&gt; ] &lt;right_bracket&gt;, &lt;string&gt; ::= &lt;quotation_mark&gt; [&lt;character&gt;] * &lt;quotation_mark&gt; , &lt;character&gt; ::= &lt;unescaped&gt; | &lt;escaped&gt;, &lt;boolean&gt; ::= "true" | "false"|"True"|"False"|"TRUE"|"FALSE" , &lt;number&gt; ::= &lt;integer&gt; [ &lt;period&gt; &lt;fraction&gt; ] [ &lt;exponent&gt; ] , &lt;integer&gt; ::= "-"?[0-9]+ , &lt;fraction&gt; ::= [0-9]+ , &lt;exponent&gt; ::= ( "e" | "E" ) [ "+" | "-" ] [0-9] +'</v>
       </c>
       <c r="B39" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D39" s="1" t="str">
         <f t="shared" ref="D39" si="22">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A39&amp;" ### Response: "&amp;C39</f>
@@ -5158,10 +5505,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;name_list&gt; ::= &lt;name&gt; { [ &lt;comma&gt; [&lt;name&gt;] ] }'</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C45" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5174,10 +5521,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;name_list&gt; ::= &lt;name&gt; { [ &lt;comma&gt; [&lt;name&gt;] ] }'</v>
       </c>
       <c r="B46" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5190,10 +5537,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;name_list&gt; ::= &lt;name&gt; { [ &lt;comma&gt; [&lt;name&gt;] ] }'</v>
       </c>
       <c r="B47" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C47" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5206,10 +5553,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] }'</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5222,10 +5569,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] }'</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C49" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5238,23 +5585,23 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] }'</v>
       </c>
       <c r="B50" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C50" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" ht="49.5">
+    <row r="51" spans="1:4" ht="66">
       <c r="A51" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$5 &amp; "'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;argument_list&gt; ::= &lt;expression&gt; { [ &lt;comma&gt; [&lt;expression&gt;] ] }'</v>
       </c>
       <c r="B51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" t="s">
         <v>180</v>
-      </c>
-      <c r="C51" t="s">
-        <v>195</v>
       </c>
       <c r="D51" s="1" t="str">
         <f t="shared" ref="D51:D88" si="23">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A51&amp;" ### Response: "&amp;C51</f>
@@ -5267,10 +5614,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt;'</v>
       </c>
       <c r="B52" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D52" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5283,10 +5630,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt;'</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D53" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5299,10 +5646,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt;'</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D54" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5315,10 +5662,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;expression&gt; ::= &lt;name&gt; | &lt;key_value_pair&gt;| &lt;function&gt; | &lt;object&gt;'</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="D55" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5331,10 +5678,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;'</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C56" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D56" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5347,10 +5694,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;'</v>
       </c>
       <c r="B57" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D57" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5363,10 +5710,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;'</v>
       </c>
       <c r="B58" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D58" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5379,10 +5726,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;'</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D59" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5395,74 +5742,74 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;'</v>
       </c>
       <c r="B60" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D60" s="1" t="str">
         <f t="shared" si="23"/>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;' ### Response: Ok 0000 : function</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="49.5">
+    <row r="61" spans="1:4" ht="66">
       <c r="A61" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;'</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C61" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D61" s="1" t="str">
         <f t="shared" si="23"/>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;' ### Response: Error 0005 : Syntax Error - '('가 불필요합니다.</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="49.5">
+    <row r="62" spans="1:4" ht="66">
       <c r="A62" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;'</v>
       </c>
       <c r="B62" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C62" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D62" s="1" t="str">
         <f t="shared" si="23"/>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;' ### Response: Error 0006 : Syntax Error - '('가 불필요합니다.</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="49.5">
+    <row r="63" spans="1:4" ht="66">
       <c r="A63" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;'</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C63" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D63" s="1" t="str">
         <f t="shared" si="23"/>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;' ### Response: Error 0007 : Syntax Error - ')'가 불필요합니다.</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="49.5">
+    <row r="64" spans="1:4" ht="66">
       <c r="A64" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$7 &amp; "'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function&gt; ::= &lt;name&gt; &lt;left_parenthesis&gt; [&lt;argument_list&gt;] &lt;right_parenthesis&gt;'</v>
       </c>
       <c r="B64" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C64" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D64" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5475,10 +5822,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function_list&gt; ::= &lt;function&gt; { [ &lt;comma&gt; &lt;function&gt; ] }'</v>
       </c>
       <c r="B65" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D65" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5491,10 +5838,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;function_list&gt; ::= &lt;function&gt; { [ &lt;comma&gt; &lt;function&gt; ] }'</v>
       </c>
       <c r="B66" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D66" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5507,10 +5854,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B67" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C67" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D67" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5523,10 +5870,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B68" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C68" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D68" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5539,10 +5886,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C69" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D69" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5555,10 +5902,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B70" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C70" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D70" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5571,10 +5918,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B71" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D71" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5587,10 +5934,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B72" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C72" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D72" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5603,10 +5950,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B73" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C73" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D73" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5619,10 +5966,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B74" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C74" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D74" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5635,10 +5982,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B75" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C75" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D75" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5651,10 +5998,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B76" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C76" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D76" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5667,10 +6014,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B77" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D77" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5683,10 +6030,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B78" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C78" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D78" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5699,10 +6046,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B79" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C79" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D79" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5715,10 +6062,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B80" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D80" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5731,10 +6078,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C81" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D81" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5747,10 +6094,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B82" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C82" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D82" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5763,10 +6110,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B83" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C83" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D83" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5779,10 +6126,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B84" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C84" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D84" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5795,10 +6142,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B85" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C85" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D85" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5811,10 +6158,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B86" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C86" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D86" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5827,10 +6174,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B87" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C87" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D87" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5843,10 +6190,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B88" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C88" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D88" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5859,10 +6206,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair_list&gt; ::= &lt;key_value_pair_list&gt; { [ &lt;comma&gt; key_value_pair_list ] }'</v>
       </c>
       <c r="B89" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C89" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D89" s="1" t="str">
         <f t="shared" ref="D89:D110" si="24">"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A89&amp;" ### Response: "&amp;C89</f>
@@ -5875,10 +6222,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair_list&gt; ::= &lt;key_value_pair_list&gt; { [ &lt;comma&gt; key_value_pair_list ] }'</v>
       </c>
       <c r="B90" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C90" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D90" s="1" t="str">
         <f t="shared" si="24"/>
@@ -5891,10 +6238,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair_list&gt; ::= &lt;key_value_pair_list&gt; { [ &lt;comma&gt; key_value_pair_list ] }'</v>
       </c>
       <c r="B91" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C91" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D91" s="1" t="str">
         <f t="shared" si="24"/>
@@ -5907,10 +6254,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair_list&gt; ::= &lt;key_value_pair_list&gt; { [ &lt;comma&gt; key_value_pair_list ] }'</v>
       </c>
       <c r="B92" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C92" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D92" s="1" t="str">
         <f t="shared" si="24"/>
@@ -5923,10 +6270,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair_list&gt; ::= &lt;key_value_pair_list&gt; { [ &lt;comma&gt; key_value_pair_list ] }'</v>
       </c>
       <c r="B93" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C93" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D93" s="1" t="str">
         <f t="shared" si="24"/>
@@ -5939,10 +6286,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair_list&gt; ::= &lt;key_value_pair_list&gt; { [ &lt;comma&gt; key_value_pair_list ] }'</v>
       </c>
       <c r="B94" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C94" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D94" s="1" t="str">
         <f t="shared" si="24"/>
@@ -5955,10 +6302,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair_list&gt; ::= &lt;key_value_pair_list&gt; { [ &lt;comma&gt; key_value_pair_list ] }'</v>
       </c>
       <c r="B95" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C95" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D95" s="1" t="str">
         <f t="shared" si="24"/>
@@ -5971,10 +6318,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair_list&gt; ::= &lt;key_value_pair_list&gt; { [ &lt;comma&gt; key_value_pair_list ] }'</v>
       </c>
       <c r="B96" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C96" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D96" s="1" t="str">
         <f t="shared" si="24"/>
@@ -5987,10 +6334,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair_list&gt; ::= &lt;key_value_pair_list&gt; { [ &lt;comma&gt; key_value_pair_list ] }'</v>
       </c>
       <c r="B97" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C97" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D97" s="1" t="str">
         <f t="shared" si="24"/>
@@ -6003,10 +6350,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair_list&gt; ::= &lt;key_value_pair_list&gt; { [ &lt;comma&gt; key_value_pair_list ] }'</v>
       </c>
       <c r="B98" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C98" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D98" s="1" t="str">
         <f t="shared" si="24"/>
@@ -6019,10 +6366,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair_list&gt; ::= &lt;key_value_pair_list&gt; { [ &lt;comma&gt; key_value_pair_list ] }'</v>
       </c>
       <c r="B99" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C99" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D99" s="1" t="str">
         <f t="shared" si="24"/>
@@ -6035,10 +6382,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair_list&gt; ::= &lt;key_value_pair_list&gt; { [ &lt;comma&gt; key_value_pair_list ] }'</v>
       </c>
       <c r="B100" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C100" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D100" s="1" t="str">
         <f t="shared" si="24"/>
@@ -6051,10 +6398,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B101" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C101" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D101" s="1" t="str">
         <f t="shared" si="24"/>
@@ -6067,10 +6414,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B102" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C102" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D102" s="1" t="str">
         <f t="shared" si="24"/>
@@ -6083,10 +6430,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B103" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C103" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D103" s="1" t="str">
         <f t="shared" si="24"/>
@@ -6099,10 +6446,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B104" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C104" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D104" s="1" t="str">
         <f t="shared" si="24"/>
@@ -6115,10 +6462,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C105" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D105" s="1" t="str">
         <f t="shared" si="24"/>
@@ -6131,10 +6478,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B106" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C106" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D106" s="1" t="str">
         <f t="shared" si="24"/>
@@ -6147,10 +6494,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B107" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C107" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D107" s="1" t="str">
         <f t="shared" si="24"/>
@@ -6163,10 +6510,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B108" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C108" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D108" s="1" t="str">
         <f t="shared" si="24"/>
@@ -6179,10 +6526,10 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B109" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C109" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D109" s="1" t="str">
         <f t="shared" si="24"/>
@@ -6195,17 +6542,17 @@
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;'</v>
       </c>
       <c r="B110" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C110" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D110" s="1" t="str">
         <f t="shared" si="24"/>
         <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair&gt; ::= &lt;string&gt; &lt;colon&gt; &lt;value&gt;' ### Response: Error 0013 : syntax Error - ';'가 불필요합니다.</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="33">
+    <row r="111" spans="1:4" ht="49.5">
       <c r="A111" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$10 &amp; "'"</f>
         <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;key_value_pair_list&gt; ::= &lt;key_value_pair_list&gt; { [ &lt;comma&gt; key_value_pair_list ] }'</v>
@@ -6244,10 +6591,10 @@
       <c r="A119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" ht="49.5">
+    <row r="120" spans="1:4" ht="66">
       <c r="A120" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$49 &amp; "'"</f>
-        <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ "(" &lt;comopent_list&gt; ")" ]'</v>
+        <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ &lt;left_parenthesis&gt; &lt;comopent_list&gt; &lt;right_parenthesis&gt; ]'</v>
       </c>
       <c r="B120" t="str">
         <f>'문법설명 데이터'!$G$49</f>
@@ -6255,91 +6602,91 @@
 @ compo ( Header  , Lnb  = props ( chckno : chckno , upt_hist_cnt : upt_hist_cnt , eq_sn : eq_sn )   , Footer , TestComp )</v>
       </c>
       <c r="C120" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D120" s="1" t="str">
         <f>'문법설명 데이터'!$F$1&amp;" ### Instruction: "&amp;A120&amp;" ### Response: "&amp;C120</f>
-        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ "(" &lt;comopent_list&gt; ")" ]' ### Response: Ok</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="49.5">
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ &lt;left_parenthesis&gt; &lt;comopent_list&gt; &lt;right_parenthesis&gt; ]' ### Response: Ok</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="66">
       <c r="A121" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$49 &amp; "'"</f>
-        <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ "(" &lt;comopent_list&gt; ")" ]'</v>
+        <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ &lt;left_parenthesis&gt; &lt;comopent_list&gt; &lt;right_parenthesis&gt; ]'</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C121" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D121" s="1" t="str">
         <f>'문법설명 데이터'!$F$1&amp;" ### Instruction: "&amp;A121&amp;" ### Response: "&amp;C121</f>
-        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ "(" &lt;comopent_list&gt; ")" ]' ### Response: Ok</v>
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ &lt;left_parenthesis&gt; &lt;comopent_list&gt; &lt;right_parenthesis&gt; ]' ### Response: Ok</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="82.5">
       <c r="A122" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$49 &amp; "'"</f>
-        <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ "(" &lt;comopent_list&gt; ")" ]'</v>
+        <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ &lt;left_parenthesis&gt; &lt;comopent_list&gt; &lt;right_parenthesis&gt; ]'</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C122" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D122" s="1" t="str">
         <f>'문법설명 데이터'!$F$1&amp;" ### Instruction: "&amp;A122&amp;" ### Response: "&amp;C122</f>
-        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ "(" &lt;comopent_list&gt; ")" ]' ### Response: Ok</v>
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ &lt;left_parenthesis&gt; &lt;comopent_list&gt; &lt;right_parenthesis&gt; ]' ### Response: Ok</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="148.5">
       <c r="A123" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$49 &amp; "'"</f>
-        <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ "(" &lt;comopent_list&gt; ")" ]'</v>
+        <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ &lt;left_parenthesis&gt; &lt;comopent_list&gt; &lt;right_parenthesis&gt; ]'</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C123" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D123" s="1" t="str">
         <f>'문법설명 데이터'!$F$1&amp;" ### Instruction: "&amp;A123&amp;" ### Response: "&amp;C123</f>
-        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ "(" &lt;comopent_list&gt; ")" ]' ### Response: Ok</v>
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ &lt;left_parenthesis&gt; &lt;comopent_list&gt; &lt;right_parenthesis&gt; ]' ### Response: Ok</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="66">
       <c r="A124" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$49 &amp; "'"</f>
-        <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ "(" &lt;comopent_list&gt; ")" ]'</v>
+        <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ &lt;left_parenthesis&gt; &lt;comopent_list&gt; &lt;right_parenthesis&gt; ]'</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C124" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="D124" s="1" t="str">
         <f>'문법설명 데이터'!$F$1&amp;" ### Instruction: "&amp;A124&amp;" ### Response: "&amp;C124</f>
-        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ "(" &lt;comopent_list&gt; ")" ]' ### Response: Error 1001 : 컴포넌트 명칭은 필수로 입력해야 합니다.</v>
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ &lt;left_parenthesis&gt; &lt;comopent_list&gt; &lt;right_parenthesis&gt; ]' ### Response: Error 1001 : 컴포넌트 명칭은 필수로 입력해야 합니다.</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="66">
       <c r="A125" s="1" t="str">
         <f>'문법설명 데이터'!$D$1 &amp; "'" &amp; '문법설명 데이터'!$D$49 &amp; "'"</f>
-        <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ "(" &lt;comopent_list&gt; ")" ]'</v>
+        <v>Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ &lt;left_parenthesis&gt; &lt;comopent_list&gt; &lt;right_parenthesis&gt; ]'</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C125" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D125" s="1" t="str">
         <f>'문법설명 데이터'!$F$1&amp;" ### Instruction: "&amp;A125&amp;" ### Response: "&amp;C125</f>
-        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ "(" &lt;comopent_list&gt; ")" ]' ### Response: Warning 1001 : 하위 컴포넌트 명칭이 필요합니다.</v>
+        <v>Below is an instruction that describes a task. Write a response that appropriately completes the request. ### Instruction: Determine whether the given script follows the defined anyx BNF structure: '&lt;component&gt; ::= &lt;name&gt; "@compo" | [&lt;component_property&gt;] [ &lt;left_parenthesis&gt; &lt;comopent_list&gt; &lt;right_parenthesis&gt; ]' ### Response: Warning 1001 : 하위 컴포넌트 명칭이 필요합니다.</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -6354,13 +6701,13 @@
     </row>
     <row r="128" spans="1:4" ht="49.5">
       <c r="A128" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B128" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C128" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="D128" s="1" t="str">
         <f>"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A128&amp;" ### Response: "&amp;C128</f>
@@ -6369,13 +6716,13 @@
     </row>
     <row r="129" spans="1:4" ht="49.5">
       <c r="A129" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B129" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C129" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D129" s="1" t="str">
         <f>"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A129&amp;" ### Response: "&amp;C129</f>
@@ -6384,13 +6731,13 @@
     </row>
     <row r="130" spans="1:4" ht="49.5">
       <c r="A130" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B130" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C130" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D130" s="1" t="str">
         <f>"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A130&amp;" ### Response: "&amp;C130</f>
@@ -6399,13 +6746,13 @@
     </row>
     <row r="131" spans="1:4" ht="49.5">
       <c r="A131" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B131" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C131" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D131" s="1" t="str">
         <f>"Below is an instruction that describes a task. Write a response that appropriately completes the request."&amp;" ### Instruction: "&amp;A131&amp;" ### Response: "&amp;C131</f>
@@ -6414,7 +6761,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D132" s="1"/>
     </row>
